--- a/Studies/Oregon_Site/Journals-YearlyComparisons/Results_DF_Potato.xlsx
+++ b/Studies/Oregon_Site/Journals-YearlyComparisons/Results_DF_Potato.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayala\Documents\GitHub\InSPIRE\Studies\Oregon_Site\Journals-YearlyComparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D9272432-4A72-4F46-9A43-46CD91287593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50AE324-3955-4813-8533-61E57A9A1D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results_DF_Potato" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(Results_DF_Potato!$D$4,Results_DF_Potato!$L$4:$M$4,Results_DF_Potato!$U$4:$V$4,Results_DF_Potato!$AD$4:$AE$4)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Results_DF_Potato!$D$5,Results_DF_Potato!$L$5:$M$5,Results_DF_Potato!$U$5:$V$5,Results_DF_Potato!$AD$5:$AE$5)</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">(Results_DF_Potato!$D$8,Results_DF_Potato!$L$8:$M$8,Results_DF_Potato!$U$8:$V$8,Results_DF_Potato!$AD$8:$AE$8)</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">(Results_DF_Potato!$D$9,Results_DF_Potato!$L$9:$M$9,Results_DF_Potato!$U$9:$V$9,Results_DF_Potato!$AD$9:$AE$9)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(Results_DF_Potato!$D$6,Results_DF_Potato!$L$6:$M$6,Results_DF_Potato!$U$6:$V$6,Results_DF_Potato!$AD$6:$AE$6)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(Results_DF_Potato!$D$7,Results_DF_Potato!$L$7:$M$7,Results_DF_Potato!$U$7:$V$7,Results_DF_Potato!$AD$7:$AE$7)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">(Results_DF_Potato!$D$8,Results_DF_Potato!$L$8:$M$8,Results_DF_Potato!$U$8:$V$8,Results_DF_Potato!$AD$8:$AE$8)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">(Results_DF_Potato!$D$9,Results_DF_Potato!$L$9:$M$9,Results_DF_Potato!$U$9:$V$9,Results_DF_Potato!$AD$9:$AE$9)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">(Results_DF_Potato!$D$4,Results_DF_Potato!$L$4:$M$4,Results_DF_Potato!$U$4:$V$4,Results_DF_Potato!$AD$4:$AE$4)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">(Results_DF_Potato!$D$5,Results_DF_Potato!$L$5:$M$5,Results_DF_Potato!$U$5:$V$5,Results_DF_Potato!$AD$5:$AE$5)</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">(Results_DF_Potato!$D$6,Results_DF_Potato!$L$6:$M$6,Results_DF_Potato!$U$6:$V$6,Results_DF_Potato!$AD$6:$AE$6)</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">(Results_DF_Potato!$D$7,Results_DF_Potato!$L$7:$M$7,Results_DF_Potato!$U$7:$V$7,Results_DF_Potato!$AD$7:$AE$7)</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="229">
   <si>
     <t>Year</t>
   </si>
@@ -658,13 +657,79 @@
   </si>
   <si>
     <t>SETUP 2</t>
+  </si>
+  <si>
+    <t>1 Wh</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>1 MJ/m-day</t>
+  </si>
+  <si>
+    <t>PAR CONVERSIONS</t>
+  </si>
+  <si>
+    <t>Setup 1</t>
+  </si>
+  <si>
+    <t>Setup 2</t>
+  </si>
+  <si>
+    <t>GHI [Wh/m2]</t>
+  </si>
+  <si>
+    <t>UNITS FOR GHI, Bed A, and Bed B are Monthly or Seasonal Insolation (Wh/m2), as it is the irradiance received integrated over that period of time.</t>
+  </si>
+  <si>
+    <t>Average Daily Insolation during month (Wh/m2-day)</t>
+  </si>
+  <si>
+    <t>Month/Period</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>CONVERSION:</t>
+  </si>
+  <si>
+    <t>MONTHLY INSOLATION (Wh/m2) [linked copy from above]</t>
+  </si>
+  <si>
+    <t>ASSUMPTION:</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Full Spectrum Radiation -  units (MJ/m2-day)</t>
+  </si>
+  <si>
+    <t>400-700 NM PAR - units (MJ/m2-day)</t>
+  </si>
+  <si>
+    <t>of fullspectrum</t>
+  </si>
+  <si>
+    <t>PPFD - units umol / m2- sec</t>
+  </si>
+  <si>
+    <t>umol/m2-sec PPFD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +867,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1167,9 +1240,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,8 +1254,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1319,7 +1401,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results_DF_Potato!$F$2</c:f>
+              <c:f>Results_DF_Potato!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1343,7 +1425,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Results_DF_Potato!$D$4:$D$9</c:f>
+              <c:f>Results_DF_Potato!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1370,7 +1452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results_DF_Potato!$L$4:$L$9</c:f>
+              <c:f>Results_DF_Potato!$L$6:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1407,7 +1489,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results_DF_Potato!$N$2</c:f>
+              <c:f>Results_DF_Potato!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1431,7 +1513,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Results_DF_Potato!$D$4:$D$9</c:f>
+              <c:f>Results_DF_Potato!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1458,7 +1540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results_DF_Potato!$U$4:$U$9</c:f>
+              <c:f>Results_DF_Potato!$U$6:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1495,7 +1577,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results_DF_Potato!$W$2</c:f>
+              <c:f>Results_DF_Potato!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1519,7 +1601,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Results_DF_Potato!$D$4:$D$9</c:f>
+              <c:f>Results_DF_Potato!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1546,7 +1628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results_DF_Potato!$AD$4:$AD$9</c:f>
+              <c:f>Results_DF_Potato!$AD$6:$AD$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1860,7 +1942,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results_DF_Potato!$F$2</c:f>
+              <c:f>Results_DF_Potato!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1884,7 +1966,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Results_DF_Potato!$D$4:$D$9</c:f>
+              <c:f>Results_DF_Potato!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1911,7 +1993,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results_DF_Potato!$M$4:$M$9</c:f>
+              <c:f>Results_DF_Potato!$M$6:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1948,7 +2030,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results_DF_Potato!$N$2</c:f>
+              <c:f>Results_DF_Potato!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1972,7 +2054,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Results_DF_Potato!$D$4:$D$9</c:f>
+              <c:f>Results_DF_Potato!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1999,7 +2081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results_DF_Potato!$V$4:$V$9</c:f>
+              <c:f>Results_DF_Potato!$V$6:$V$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2036,7 +2118,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Results_DF_Potato!$W$2</c:f>
+              <c:f>Results_DF_Potato!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2060,7 +2142,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Results_DF_Potato!$D$4:$D$9</c:f>
+              <c:f>Results_DF_Potato!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2087,7 +2169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Results_DF_Potato!$AE$4:$AE$9</c:f>
+              <c:f>Results_DF_Potato!$AE$6:$AE$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3284,16 +3366,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>97847</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>139411</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>187469</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3320,16 +3402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>305667</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>867</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>159328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3655,348 +3737,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN49" sqref="AN49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F2" s="2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
         <v>2019</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5">
         <v>2020</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="4">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6">
         <v>2021</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>205</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="P5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="Q5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="R5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="S5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="T5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="U5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="V5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="W5" t="s">
         <v>205</v>
       </c>
-      <c r="O3" t="s">
+      <c r="X5" t="s">
         <v>4</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Y5" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Z5" t="s">
         <v>6</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AA5" t="s">
         <v>7</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AB5" t="s">
         <v>8</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AC5" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="AD5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="AE5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="W3" t="s">
-        <v>205</v>
-      </c>
-      <c r="X3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2019</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>129803</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>47266.44</v>
-      </c>
-      <c r="M4">
-        <v>107780.3</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="O4">
-        <v>154667</v>
-      </c>
-      <c r="P4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4">
-        <v>43907.56</v>
-      </c>
-      <c r="V4">
-        <v>136475</v>
-      </c>
-      <c r="W4">
-        <v>16</v>
-      </c>
-      <c r="X4">
-        <v>177256</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>6.0196448030877603</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>45915.61</v>
-      </c>
-      <c r="AE4">
-        <v>157974.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>191992</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>106786.2</v>
-      </c>
-      <c r="M5">
-        <v>169788.3</v>
-      </c>
-      <c r="N5">
-        <v>9</v>
-      </c>
-      <c r="O5">
-        <v>164790</v>
-      </c>
-      <c r="P5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5">
-        <v>98451.58</v>
-      </c>
-      <c r="V5">
-        <v>141877.4</v>
-      </c>
-      <c r="W5">
-        <v>17</v>
-      </c>
-      <c r="X5">
-        <v>195450</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD5">
-        <v>111571.3</v>
-      </c>
-      <c r="AE5">
-        <v>173502.1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>2019</v>
@@ -4005,93 +3911,93 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>227113</v>
+        <v>129803</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>165011.29999999999</v>
+        <v>47266.44</v>
       </c>
       <c r="M6">
-        <v>200436.9</v>
+        <v>107780.3</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>190428</v>
+        <v>154667</v>
       </c>
       <c r="P6" t="s">
         <v>12</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="U6">
-        <v>134943.70000000001</v>
+        <v>43907.56</v>
       </c>
       <c r="V6">
-        <v>161668.5</v>
+        <v>136475</v>
       </c>
       <c r="W6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X6">
-        <v>213969</v>
+        <v>177256</v>
       </c>
       <c r="Y6" t="s">
         <v>12</v>
       </c>
       <c r="Z6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD6">
-        <v>149859.20000000001</v>
+        <v>79</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>6.0196448030877603</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>45915.61</v>
       </c>
       <c r="AE6">
-        <v>186682</v>
+        <v>157974.1</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>2019</v>
@@ -4100,93 +4006,93 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>217273</v>
+        <v>191992</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L7">
-        <v>135270.39999999999</v>
+        <v>106786.2</v>
       </c>
       <c r="M7">
-        <v>198085.6</v>
+        <v>169788.3</v>
       </c>
       <c r="N7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>231588</v>
+        <v>164790</v>
       </c>
       <c r="P7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U7">
-        <v>146157.1</v>
+        <v>98451.58</v>
       </c>
       <c r="V7">
-        <v>209132.9</v>
+        <v>141877.4</v>
       </c>
       <c r="W7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X7">
-        <v>241973</v>
+        <v>195450</v>
       </c>
       <c r="Y7" t="s">
         <v>12</v>
       </c>
       <c r="Z7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AD7">
-        <v>155483.29999999999</v>
+        <v>111571.3</v>
       </c>
       <c r="AE7">
-        <v>218423.1</v>
+        <v>173502.1</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -4195,93 +4101,93 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>192844</v>
+        <v>227113</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L8">
-        <v>72630.34</v>
+        <v>165011.29999999999</v>
       </c>
       <c r="M8">
-        <v>179780.5</v>
+        <v>200436.9</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>210420</v>
+        <v>190428</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="U8">
-        <v>74868.86</v>
+        <v>134943.70000000001</v>
       </c>
       <c r="V8">
-        <v>196192.4</v>
+        <v>161668.5</v>
       </c>
       <c r="W8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X8">
-        <v>200294</v>
+        <v>213969</v>
       </c>
       <c r="Y8" t="s">
         <v>12</v>
       </c>
       <c r="Z8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AA8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AD8">
-        <v>74902.039999999994</v>
+        <v>149859.20000000001</v>
       </c>
       <c r="AE8">
-        <v>187276.79999999999</v>
+        <v>186682</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -4290,93 +4196,93 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>119786</v>
+        <v>217273</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L9">
-        <v>27274.55</v>
+        <v>135270.39999999999</v>
       </c>
       <c r="M9">
-        <v>98670.39</v>
+        <v>198085.6</v>
       </c>
       <c r="N9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>129779</v>
+        <v>231588</v>
       </c>
       <c r="P9" t="s">
         <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="U9">
-        <v>32317.29</v>
-      </c>
-      <c r="V9" s="1">
-        <v>105508.399999999</v>
+        <v>146157.1</v>
+      </c>
+      <c r="V9">
+        <v>209132.9</v>
       </c>
       <c r="W9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X9">
-        <v>141856</v>
+        <v>241973</v>
       </c>
       <c r="Y9" t="s">
         <v>12</v>
       </c>
       <c r="Z9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AB9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AD9">
-        <v>25545.119999999999</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>119591.899999999</v>
+        <v>155483.29999999999</v>
+      </c>
+      <c r="AE9">
+        <v>218423.1</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2019</v>
@@ -4385,93 +4291,93 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>51941</v>
+        <v>192844</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1">
-        <v>7447.2959999999903</v>
-      </c>
-      <c r="M10" s="1">
-        <v>24924.15</v>
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>72630.34</v>
+      </c>
+      <c r="M10">
+        <v>179780.5</v>
       </c>
       <c r="N10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>41516</v>
+        <v>210420</v>
       </c>
       <c r="P10" t="s">
         <v>12</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="U10">
-        <v>8745.3539999999994</v>
+        <v>74868.86</v>
       </c>
       <c r="V10">
-        <v>21514.98</v>
+        <v>196192.4</v>
       </c>
       <c r="W10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X10">
-        <v>43887</v>
+        <v>200294</v>
       </c>
       <c r="Y10" t="s">
         <v>12</v>
       </c>
       <c r="Z10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AA10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AB10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AD10">
-        <v>7882.3729999999996</v>
+        <v>74902.039999999994</v>
       </c>
       <c r="AE10">
-        <v>24189.09</v>
+        <v>187276.79999999999</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -4480,431 +4386,434 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>1130752</v>
+        <v>119786</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L11">
-        <v>570360.80000000005</v>
+        <v>27274.55</v>
       </c>
       <c r="M11">
-        <v>985179.5</v>
+        <v>98670.39</v>
       </c>
       <c r="N11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11">
-        <v>1123188</v>
+        <v>129779</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="U11">
-        <v>534440.4</v>
+        <v>32317.29</v>
       </c>
       <c r="V11" s="1">
-        <v>973377.8</v>
+        <v>105508.399999999</v>
       </c>
       <c r="W11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X11">
-        <v>1214685</v>
+        <v>141856</v>
       </c>
       <c r="Y11" t="s">
         <v>12</v>
       </c>
       <c r="Z11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AB11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC11">
-        <v>6.8444251786180104</v>
+        <v>98</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="AD11">
-        <v>572418.9</v>
-      </c>
-      <c r="AE11">
-        <v>1068118</v>
+        <v>25545.119999999999</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>119591.899999999</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
       <c r="B12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>51941</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7447.2959999999903</v>
+      </c>
+      <c r="M12" s="1">
+        <v>24924.15</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>41516</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12">
+        <v>8745.3539999999994</v>
+      </c>
+      <c r="V12">
+        <v>21514.98</v>
+      </c>
+      <c r="W12">
+        <v>22</v>
+      </c>
+      <c r="X12">
+        <v>43887</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD12">
+        <v>7882.3729999999996</v>
+      </c>
+      <c r="AE12">
+        <v>24189.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1130752</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13">
+        <v>570360.80000000005</v>
+      </c>
+      <c r="M13">
+        <v>985179.5</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>1123188</v>
+      </c>
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13">
+        <v>534440.4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>973377.8</v>
+      </c>
+      <c r="W13">
+        <v>23</v>
+      </c>
+      <c r="X13">
+        <v>1214685</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC13">
+        <v>6.8444251786180104</v>
+      </c>
+      <c r="AD13">
+        <v>572418.9</v>
+      </c>
+      <c r="AE13">
+        <v>1068118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F16" s="2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
         <v>2019</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5">
         <v>2020</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="4">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="6">
         <v>2021</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>205</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>7</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J19" t="s">
         <v>8</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>9</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L19" t="s">
         <v>10</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M19" t="s">
         <v>11</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N19" t="s">
         <v>205</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O19" t="s">
         <v>4</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P19" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q19" t="s">
         <v>6</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R19" t="s">
         <v>7</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S19" t="s">
         <v>8</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T19" t="s">
         <v>9</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U19" t="s">
         <v>10</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V19" t="s">
         <v>11</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W19" t="s">
         <v>205</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X19" t="s">
         <v>4</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y19" t="s">
         <v>5</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z19" t="s">
         <v>6</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA19" t="s">
         <v>7</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB19" t="s">
         <v>8</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC19" t="s">
         <v>9</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD19" t="s">
         <v>10</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE19" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>2019</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>128702</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18">
-        <v>45714.34</v>
-      </c>
-      <c r="M18">
-        <v>119033.8</v>
-      </c>
-      <c r="N18">
-        <v>32</v>
-      </c>
-      <c r="O18">
-        <v>148228</v>
-      </c>
-      <c r="P18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>139</v>
-      </c>
-      <c r="R18" t="s">
-        <v>140</v>
-      </c>
-      <c r="S18" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U18">
-        <v>43201.39</v>
-      </c>
-      <c r="V18">
-        <v>138238.39999999999</v>
-      </c>
-      <c r="W18">
-        <v>40</v>
-      </c>
-      <c r="X18">
-        <v>177369</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD18">
-        <v>41981.22</v>
-      </c>
-      <c r="AE18">
-        <v>164230.29999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>2019</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>191311</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19">
-        <v>101298.7</v>
-      </c>
-      <c r="M19">
-        <v>179292.6</v>
-      </c>
-      <c r="N19">
-        <v>33</v>
-      </c>
-      <c r="O19">
-        <v>162526</v>
-      </c>
-      <c r="P19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>143</v>
-      </c>
-      <c r="R19" t="s">
-        <v>144</v>
-      </c>
-      <c r="S19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U19">
-        <v>91555.06</v>
-      </c>
-      <c r="V19">
-        <v>151832.79999999999</v>
-      </c>
-      <c r="W19">
-        <v>41</v>
-      </c>
-      <c r="X19">
-        <v>191911</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD19">
-        <v>108180.7</v>
-      </c>
-      <c r="AE19">
-        <v>183715</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>2019</v>
@@ -4913,93 +4822,93 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>226306</v>
+        <v>128702</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L20">
-        <v>160728.5</v>
+        <v>45714.34</v>
       </c>
       <c r="M20">
-        <v>214053.6</v>
+        <v>119033.8</v>
       </c>
       <c r="N20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O20">
-        <v>188789</v>
+        <v>148228</v>
       </c>
       <c r="P20" t="s">
         <v>12</v>
       </c>
       <c r="Q20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="S20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="U20">
-        <v>130551.8</v>
+        <v>43201.39</v>
       </c>
       <c r="V20">
-        <v>180973.6</v>
+        <v>138238.39999999999</v>
       </c>
       <c r="W20">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X20">
-        <v>212691</v>
+        <v>177369</v>
       </c>
       <c r="Y20" t="s">
         <v>12</v>
       </c>
       <c r="Z20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AA20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AB20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AD20">
-        <v>146739.4</v>
+        <v>41981.22</v>
       </c>
       <c r="AE20">
-        <v>204693.5</v>
+        <v>164230.29999999999</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>2019</v>
@@ -5008,93 +4917,93 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>209524</v>
+        <v>191311</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L21">
-        <v>132098</v>
+        <v>101298.7</v>
       </c>
       <c r="M21">
-        <v>202271.9</v>
+        <v>179292.6</v>
       </c>
       <c r="N21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O21">
-        <v>230025</v>
+        <v>162526</v>
       </c>
       <c r="P21" t="s">
         <v>12</v>
       </c>
       <c r="Q21" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R21" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="S21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="U21">
-        <v>143271</v>
+        <v>91555.06</v>
       </c>
       <c r="V21">
-        <v>221738.9</v>
+        <v>151832.79999999999</v>
       </c>
       <c r="W21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X21">
-        <v>239581</v>
+        <v>191911</v>
       </c>
       <c r="Y21" t="s">
         <v>12</v>
       </c>
       <c r="Z21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AB21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AD21">
-        <v>144496.20000000001</v>
+        <v>108180.7</v>
       </c>
       <c r="AE21">
-        <v>233331</v>
+        <v>183715</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -5103,93 +5012,93 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>189874</v>
+        <v>226306</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22">
-        <v>7.76331512502012</v>
+        <v>117</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="L22">
-        <v>66688.160000000003</v>
+        <v>160728.5</v>
       </c>
       <c r="M22">
-        <v>184261</v>
+        <v>214053.6</v>
       </c>
       <c r="N22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O22">
-        <v>210109</v>
+        <v>188789</v>
       </c>
       <c r="P22" t="s">
         <v>12</v>
       </c>
       <c r="Q22" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="S22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="U22">
-        <v>72353.34</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>159</v>
+        <v>130551.8</v>
+      </c>
+      <c r="V22">
+        <v>180973.6</v>
       </c>
       <c r="W22">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X22">
-        <v>198249</v>
+        <v>212691</v>
       </c>
       <c r="Y22" t="s">
         <v>12</v>
       </c>
       <c r="Z22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AA22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AB22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AD22">
-        <v>72233.100000000006</v>
+        <v>146739.4</v>
       </c>
       <c r="AE22">
-        <v>187982.4</v>
+        <v>204693.5</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>2019</v>
@@ -5198,93 +5107,93 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>115929</v>
+        <v>209524</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="L23">
+        <v>132098</v>
       </c>
       <c r="M23">
-        <v>99178.66</v>
+        <v>202271.9</v>
       </c>
       <c r="N23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O23">
-        <v>129265</v>
+        <v>230025</v>
       </c>
       <c r="P23" t="s">
         <v>12</v>
       </c>
       <c r="Q23" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R23" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="S23" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="U23">
-        <v>30906.7</v>
+        <v>143271</v>
       </c>
       <c r="V23">
-        <v>106954.8</v>
+        <v>221738.9</v>
       </c>
       <c r="W23">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X23">
-        <v>143688</v>
+        <v>239581</v>
       </c>
       <c r="Y23" t="s">
         <v>12</v>
       </c>
       <c r="Z23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AA23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AB23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AD23">
-        <v>25818.92</v>
+        <v>144496.20000000001</v>
       </c>
       <c r="AE23">
-        <v>121808.3</v>
+        <v>233331</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>2019</v>
@@ -5293,93 +5202,93 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>53614</v>
+        <v>189874</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="K24">
+        <v>7.76331512502012</v>
+      </c>
+      <c r="L24">
+        <v>66688.160000000003</v>
       </c>
       <c r="M24">
-        <v>27575.74</v>
+        <v>184261</v>
       </c>
       <c r="N24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O24">
-        <v>44006</v>
+        <v>210109</v>
       </c>
       <c r="P24" t="s">
         <v>12</v>
       </c>
       <c r="Q24" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="R24" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="S24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="U24">
-        <v>8461.5589999999993</v>
-      </c>
-      <c r="V24">
-        <v>24781.49</v>
+        <v>72353.34</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="W24">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X24">
-        <v>42444</v>
+        <v>198249</v>
       </c>
       <c r="Y24" t="s">
         <v>12</v>
       </c>
       <c r="Z24" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AA24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AB24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AD24">
-        <v>7888.326</v>
+        <v>72233.100000000006</v>
       </c>
       <c r="AE24">
-        <v>23319.919999999998</v>
+        <v>187982.4</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>2019</v>
@@ -5388,101 +5297,3118 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>1115260</v>
+        <v>115929</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25">
-        <v>8.2957410028920098</v>
-      </c>
-      <c r="L25">
-        <v>550775</v>
+        <v>128</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="M25">
-        <v>1032668</v>
+        <v>99178.66</v>
       </c>
       <c r="N25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O25">
-        <v>1112948</v>
+        <v>129265</v>
       </c>
       <c r="P25" t="s">
         <v>12</v>
       </c>
       <c r="Q25" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R25" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="S25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
+      </c>
+      <c r="U25">
+        <v>30906.7</v>
       </c>
       <c r="V25">
-        <v>1012100</v>
+        <v>106954.8</v>
       </c>
       <c r="W25">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X25">
-        <v>1205933</v>
+        <v>143688</v>
       </c>
       <c r="Y25" t="s">
         <v>12</v>
       </c>
       <c r="Z25" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD25">
+        <v>25818.92</v>
+      </c>
+      <c r="AE25">
+        <v>121808.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2019</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>53614</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26">
+        <v>27575.74</v>
+      </c>
+      <c r="N26">
+        <v>38</v>
+      </c>
+      <c r="O26">
+        <v>44006</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>164</v>
+      </c>
+      <c r="R26" t="s">
+        <v>165</v>
+      </c>
+      <c r="S26" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U26">
+        <v>8461.5589999999993</v>
+      </c>
+      <c r="V26">
+        <v>24781.49</v>
+      </c>
+      <c r="W26">
+        <v>46</v>
+      </c>
+      <c r="X26">
+        <v>42444</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD26">
+        <v>7888.326</v>
+      </c>
+      <c r="AE26">
+        <v>23319.919999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1115260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27">
+        <v>8.2957410028920098</v>
+      </c>
+      <c r="L27">
+        <v>550775</v>
+      </c>
+      <c r="M27">
+        <v>1032668</v>
+      </c>
+      <c r="N27">
+        <v>39</v>
+      </c>
+      <c r="O27">
+        <v>1112948</v>
+      </c>
+      <c r="P27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>168</v>
+      </c>
+      <c r="R27" t="s">
+        <v>169</v>
+      </c>
+      <c r="S27" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V27">
+        <v>1012100</v>
+      </c>
+      <c r="W27">
+        <v>47</v>
+      </c>
+      <c r="X27">
+        <v>1205933</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="s">
         <v>201</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA27" t="s">
         <v>202</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB27" t="s">
         <v>203</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AD25">
+      <c r="AD27">
         <v>564006.5</v>
       </c>
-      <c r="AE25">
+      <c r="AE27">
         <v>1119957</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N30" s="1"/>
+    <row r="32" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D36" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9">
+        <v>2019</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9">
+        <v>2021</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38" s="12">
+        <f>L6</f>
+        <v>47266.44</v>
+      </c>
+      <c r="E38" s="12">
+        <f>M6</f>
+        <v>107780.3</v>
+      </c>
+      <c r="F38" s="12">
+        <f>U6</f>
+        <v>43907.56</v>
+      </c>
+      <c r="G38" s="12">
+        <f>V6</f>
+        <v>136475</v>
+      </c>
+      <c r="H38" s="13">
+        <f>AD6</f>
+        <v>45915.61</v>
+      </c>
+      <c r="I38" s="13">
+        <f>AE6</f>
+        <v>157974.1</v>
+      </c>
+      <c r="J38" s="12">
+        <f>L20</f>
+        <v>45714.34</v>
+      </c>
+      <c r="K38" s="12">
+        <f>M20</f>
+        <v>119033.8</v>
+      </c>
+      <c r="L38" s="12">
+        <f>U20</f>
+        <v>43201.39</v>
+      </c>
+      <c r="M38" s="12">
+        <f>V20</f>
+        <v>138238.39999999999</v>
+      </c>
+      <c r="N38" s="12">
+        <f>AD20</f>
+        <v>41981.22</v>
+      </c>
+      <c r="O38" s="12">
+        <f>AE20</f>
+        <v>164230.29999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" ref="D39:E45" si="0">L7</f>
+        <v>106786.2</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="0"/>
+        <v>169788.3</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" ref="F39:G45" si="1">U7</f>
+        <v>98451.58</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="1"/>
+        <v>141877.4</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" ref="H39:I39" si="2">AD7</f>
+        <v>111571.3</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="2"/>
+        <v>173502.1</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" ref="J39:K44" si="3">L21</f>
+        <v>101298.7</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" si="3"/>
+        <v>179292.6</v>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" ref="L39:M45" si="4">U21</f>
+        <v>91555.06</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="4"/>
+        <v>151832.79999999999</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" ref="N39:O39" si="5">AD21</f>
+        <v>108180.7</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="5"/>
+        <v>183715</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="0"/>
+        <v>165011.29999999999</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="0"/>
+        <v>200436.9</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="1"/>
+        <v>134943.70000000001</v>
+      </c>
+      <c r="G40" s="12">
+        <f t="shared" si="1"/>
+        <v>161668.5</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" ref="H40:I40" si="6">AD8</f>
+        <v>149859.20000000001</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="6"/>
+        <v>186682</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="3"/>
+        <v>160728.5</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" si="3"/>
+        <v>214053.6</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="4"/>
+        <v>130551.8</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="4"/>
+        <v>180973.6</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" ref="N40:O40" si="7">AD22</f>
+        <v>146739.4</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="7"/>
+        <v>204693.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="0"/>
+        <v>135270.39999999999</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="0"/>
+        <v>198085.6</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="1"/>
+        <v>146157.1</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="1"/>
+        <v>209132.9</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" ref="H41:I41" si="8">AD9</f>
+        <v>155483.29999999999</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="8"/>
+        <v>218423.1</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="3"/>
+        <v>132098</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" si="3"/>
+        <v>202271.9</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="4"/>
+        <v>143271</v>
+      </c>
+      <c r="M41" s="12">
+        <f t="shared" si="4"/>
+        <v>221738.9</v>
+      </c>
+      <c r="N41" s="12">
+        <f t="shared" ref="N41:O41" si="9">AD23</f>
+        <v>144496.20000000001</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" si="9"/>
+        <v>233331</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>31</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="0"/>
+        <v>72630.34</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="0"/>
+        <v>179780.5</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="1"/>
+        <v>74868.86</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="1"/>
+        <v>196192.4</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" ref="H42:I42" si="10">AD10</f>
+        <v>74902.039999999994</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="10"/>
+        <v>187276.79999999999</v>
+      </c>
+      <c r="J42" s="12">
+        <f t="shared" si="3"/>
+        <v>66688.160000000003</v>
+      </c>
+      <c r="K42" s="12">
+        <f t="shared" si="3"/>
+        <v>184261</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" si="4"/>
+        <v>72353.34</v>
+      </c>
+      <c r="M42" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>202252.70000000004</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" ref="N42:O42" si="11">AD24</f>
+        <v>72233.100000000006</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" si="11"/>
+        <v>187982.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="0"/>
+        <v>27274.55</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>98670.39</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="1"/>
+        <v>32317.29</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="1"/>
+        <v>105508.399999999</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" ref="H43:I43" si="12">AD11</f>
+        <v>25545.119999999999</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="12"/>
+        <v>119591.899999999</v>
+      </c>
+      <c r="J43" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>28064.099999999995</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="3"/>
+        <v>99178.66</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" si="4"/>
+        <v>30906.7</v>
+      </c>
+      <c r="M43" s="12">
+        <f t="shared" si="4"/>
+        <v>106954.8</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" ref="N43:O43" si="13">AD25</f>
+        <v>25818.92</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="13"/>
+        <v>121808.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="0"/>
+        <v>7447.2959999999903</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="0"/>
+        <v>24924.15</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="1"/>
+        <v>8745.3539999999994</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="1"/>
+        <v>21514.98</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" ref="H44:I44" si="14">AD12</f>
+        <v>7882.3729999999996</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="14"/>
+        <v>24189.09</v>
+      </c>
+      <c r="J44" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>7207.884999999999</v>
+      </c>
+      <c r="K44" s="12">
+        <f t="shared" si="3"/>
+        <v>27575.74</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" si="4"/>
+        <v>8461.5589999999993</v>
+      </c>
+      <c r="M44" s="12">
+        <f t="shared" si="4"/>
+        <v>24781.49</v>
+      </c>
+      <c r="N44" s="12">
+        <f t="shared" ref="N44:O44" si="15">AD26</f>
+        <v>7888.326</v>
+      </c>
+      <c r="O44" s="12">
+        <f t="shared" si="15"/>
+        <v>23319.919999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>197</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="0"/>
+        <v>570360.80000000005</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="0"/>
+        <v>985179.5</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="1"/>
+        <v>534440.4</v>
+      </c>
+      <c r="G45" s="12">
+        <f t="shared" si="1"/>
+        <v>973377.8</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" ref="H45:I45" si="16">AD13</f>
+        <v>572418.9</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="16"/>
+        <v>1068118</v>
+      </c>
+      <c r="J45" s="12">
+        <f>L27</f>
+        <v>550775</v>
+      </c>
+      <c r="K45" s="12">
+        <f>M27</f>
+        <v>1032668</v>
+      </c>
+      <c r="L45" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>513805.4000000001</v>
+      </c>
+      <c r="M45" s="12">
+        <f t="shared" si="4"/>
+        <v>1012100</v>
+      </c>
+      <c r="N45" s="12">
+        <f t="shared" ref="N45:O45" si="17">AD27</f>
+        <v>564006.5</v>
+      </c>
+      <c r="O45" s="12">
+        <f t="shared" si="17"/>
+        <v>1119957</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="11">
+        <v>2</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D49" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9">
+        <v>2019</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9">
+        <v>2021</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51" s="12">
+        <f>D38/$C38</f>
+        <v>1575.548</v>
+      </c>
+      <c r="E51" s="12">
+        <f>E38/$C38</f>
+        <v>3592.6766666666667</v>
+      </c>
+      <c r="F51" s="12">
+        <f>F38/$C38</f>
+        <v>1463.5853333333332</v>
+      </c>
+      <c r="G51" s="12">
+        <f>G38/$C38</f>
+        <v>4549.166666666667</v>
+      </c>
+      <c r="H51" s="12">
+        <f>H38/$C38</f>
+        <v>1530.5203333333334</v>
+      </c>
+      <c r="I51" s="12">
+        <f>I38/$C38</f>
+        <v>5265.8033333333333</v>
+      </c>
+      <c r="J51" s="12">
+        <f>J38/$C38</f>
+        <v>1523.8113333333333</v>
+      </c>
+      <c r="K51" s="12">
+        <f>K38/$C38</f>
+        <v>3967.7933333333335</v>
+      </c>
+      <c r="L51" s="12">
+        <f>L38/$C38</f>
+        <v>1440.0463333333332</v>
+      </c>
+      <c r="M51" s="12">
+        <f>M38/$C38</f>
+        <v>4607.9466666666667</v>
+      </c>
+      <c r="N51" s="12">
+        <f>N38/$C38</f>
+        <v>1399.374</v>
+      </c>
+      <c r="O51" s="12">
+        <f>O38/$C38</f>
+        <v>5474.3433333333332</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="D52" s="12">
+        <f>D39/$C39</f>
+        <v>3444.7161290322579</v>
+      </c>
+      <c r="E52" s="12">
+        <f>E39/$C39</f>
+        <v>5477.0419354838705</v>
+      </c>
+      <c r="F52" s="12">
+        <f>F39/$C39</f>
+        <v>3175.8574193548388</v>
+      </c>
+      <c r="G52" s="12">
+        <f>G39/$C39</f>
+        <v>4576.6903225806445</v>
+      </c>
+      <c r="H52" s="12">
+        <f>H39/$C39</f>
+        <v>3599.074193548387</v>
+      </c>
+      <c r="I52" s="12">
+        <f>I39/$C39</f>
+        <v>5596.8419354838716</v>
+      </c>
+      <c r="J52" s="12">
+        <f>J39/$C39</f>
+        <v>3267.7</v>
+      </c>
+      <c r="K52" s="12">
+        <f>K39/$C39</f>
+        <v>5783.6322580645165</v>
+      </c>
+      <c r="L52" s="12">
+        <f>L39/$C39</f>
+        <v>2953.3890322580646</v>
+      </c>
+      <c r="M52" s="12">
+        <f>M39/$C39</f>
+        <v>4897.8322580645154</v>
+      </c>
+      <c r="N52" s="12">
+        <f>N39/$C39</f>
+        <v>3489.7</v>
+      </c>
+      <c r="O52" s="12">
+        <f>O39/$C39</f>
+        <v>5926.2903225806449</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53" s="12">
+        <f>D40/$C40</f>
+        <v>5500.3766666666661</v>
+      </c>
+      <c r="E53" s="12">
+        <f>E40/$C40</f>
+        <v>6681.23</v>
+      </c>
+      <c r="F53" s="12">
+        <f>F40/$C40</f>
+        <v>4498.1233333333339</v>
+      </c>
+      <c r="G53" s="12">
+        <f>G40/$C40</f>
+        <v>5388.95</v>
+      </c>
+      <c r="H53" s="12">
+        <f>H40/$C40</f>
+        <v>4995.3066666666673</v>
+      </c>
+      <c r="I53" s="12">
+        <f>I40/$C40</f>
+        <v>6222.7333333333336</v>
+      </c>
+      <c r="J53" s="12">
+        <f>J40/$C40</f>
+        <v>5357.6166666666668</v>
+      </c>
+      <c r="K53" s="12">
+        <f>K40/$C40</f>
+        <v>7135.12</v>
+      </c>
+      <c r="L53" s="12">
+        <f>L40/$C40</f>
+        <v>4351.7266666666665</v>
+      </c>
+      <c r="M53" s="12">
+        <f>M40/$C40</f>
+        <v>6032.4533333333338</v>
+      </c>
+      <c r="N53" s="12">
+        <f>N40/$C40</f>
+        <v>4891.3133333333335</v>
+      </c>
+      <c r="O53" s="12">
+        <f>O40/$C40</f>
+        <v>6823.1166666666668</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54" s="12">
+        <f>D41/$C41</f>
+        <v>4363.5612903225801</v>
+      </c>
+      <c r="E54" s="12">
+        <f>E41/$C41</f>
+        <v>6389.8580645161292</v>
+      </c>
+      <c r="F54" s="12">
+        <f>F41/$C41</f>
+        <v>4714.7451612903224</v>
+      </c>
+      <c r="G54" s="12">
+        <f>G41/$C41</f>
+        <v>6746.2225806451615</v>
+      </c>
+      <c r="H54" s="12">
+        <f>H41/$C41</f>
+        <v>5015.5903225806451</v>
+      </c>
+      <c r="I54" s="12">
+        <f>I41/$C41</f>
+        <v>7045.9064516129038</v>
+      </c>
+      <c r="J54" s="12">
+        <f>J41/$C41</f>
+        <v>4261.2258064516127</v>
+      </c>
+      <c r="K54" s="12">
+        <f>K41/$C41</f>
+        <v>6524.9</v>
+      </c>
+      <c r="L54" s="12">
+        <f>L41/$C41</f>
+        <v>4621.6451612903229</v>
+      </c>
+      <c r="M54" s="12">
+        <f>M41/$C41</f>
+        <v>7152.8677419354835</v>
+      </c>
+      <c r="N54" s="12">
+        <f>N41/$C41</f>
+        <v>4661.1677419354846</v>
+      </c>
+      <c r="O54" s="12">
+        <f>O41/$C41</f>
+        <v>7526.8064516129034</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+      <c r="D55" s="12">
+        <f>D42/$C42</f>
+        <v>2342.9141935483872</v>
+      </c>
+      <c r="E55" s="12">
+        <f>E42/$C42</f>
+        <v>5799.3709677419356</v>
+      </c>
+      <c r="F55" s="12">
+        <f>F42/$C42</f>
+        <v>2415.1245161290321</v>
+      </c>
+      <c r="G55" s="12">
+        <f>G42/$C42</f>
+        <v>6328.7870967741937</v>
+      </c>
+      <c r="H55" s="12">
+        <f>H42/$C42</f>
+        <v>2416.1948387096772</v>
+      </c>
+      <c r="I55" s="12">
+        <f>I42/$C42</f>
+        <v>6041.1870967741934</v>
+      </c>
+      <c r="J55" s="12">
+        <f>J42/$C42</f>
+        <v>2151.2309677419357</v>
+      </c>
+      <c r="K55" s="12">
+        <f>K42/$C42</f>
+        <v>5943.9032258064517</v>
+      </c>
+      <c r="L55" s="12">
+        <f>L42/$C42</f>
+        <v>2333.9787096774194</v>
+      </c>
+      <c r="M55" s="12">
+        <f>M42/$C42</f>
+        <v>6524.2806451612905</v>
+      </c>
+      <c r="N55" s="12">
+        <f>N42/$C42</f>
+        <v>2330.1000000000004</v>
+      </c>
+      <c r="O55" s="12">
+        <f>O42/$C42</f>
+        <v>6063.9483870967742</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56" s="12">
+        <f>D43/$C43</f>
+        <v>909.15166666666664</v>
+      </c>
+      <c r="E56" s="12">
+        <f>E43/$C43</f>
+        <v>3289.0129999999999</v>
+      </c>
+      <c r="F56" s="12">
+        <f>F43/$C43</f>
+        <v>1077.2429999999999</v>
+      </c>
+      <c r="G56" s="12">
+        <f>G43/$C43</f>
+        <v>3516.9466666666335</v>
+      </c>
+      <c r="H56" s="12">
+        <f>H43/$C43</f>
+        <v>851.50400000000002</v>
+      </c>
+      <c r="I56" s="12">
+        <f>I43/$C43</f>
+        <v>3986.3966666666333</v>
+      </c>
+      <c r="J56" s="12">
+        <f>J43/$C43</f>
+        <v>935.46999999999673</v>
+      </c>
+      <c r="K56" s="12">
+        <f>K43/$C43</f>
+        <v>3305.9553333333333</v>
+      </c>
+      <c r="L56" s="12">
+        <f>L43/$C43</f>
+        <v>1030.2233333333334</v>
+      </c>
+      <c r="M56" s="12">
+        <f>M43/$C43</f>
+        <v>3565.1600000000003</v>
+      </c>
+      <c r="N56" s="12">
+        <f>N43/$C43</f>
+        <v>860.63066666666657</v>
+      </c>
+      <c r="O56" s="12">
+        <f>O43/$C43</f>
+        <v>4060.2766666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" s="12">
+        <f>D44/$C44</f>
+        <v>496.48639999999938</v>
+      </c>
+      <c r="E57" s="12">
+        <f>E44/$C44</f>
+        <v>1661.6100000000001</v>
+      </c>
+      <c r="F57" s="12">
+        <f>F44/$C44</f>
+        <v>583.02359999999999</v>
+      </c>
+      <c r="G57" s="12">
+        <f>G44/$C44</f>
+        <v>1434.3319999999999</v>
+      </c>
+      <c r="H57" s="12">
+        <f>H44/$C44</f>
+        <v>525.49153333333334</v>
+      </c>
+      <c r="I57" s="12">
+        <f>I44/$C44</f>
+        <v>1612.606</v>
+      </c>
+      <c r="J57" s="12">
+        <f>J44/$C44</f>
+        <v>480.52566666666604</v>
+      </c>
+      <c r="K57" s="12">
+        <f>K44/$C44</f>
+        <v>1838.3826666666669</v>
+      </c>
+      <c r="L57" s="12">
+        <f>L44/$C44</f>
+        <v>564.10393333333332</v>
+      </c>
+      <c r="M57" s="12">
+        <f>M44/$C44</f>
+        <v>1652.0993333333333</v>
+      </c>
+      <c r="N57" s="12">
+        <f>N44/$C44</f>
+        <v>525.88840000000005</v>
+      </c>
+      <c r="O57" s="12">
+        <f>O44/$C44</f>
+        <v>1554.6613333333332</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>197</v>
+      </c>
+      <c r="D58" s="12">
+        <f>D45/$C45</f>
+        <v>2895.232487309645</v>
+      </c>
+      <c r="E58" s="12">
+        <f>E45/$C45</f>
+        <v>5000.9111675126906</v>
+      </c>
+      <c r="F58" s="12">
+        <f>F45/$C45</f>
+        <v>2712.8954314720813</v>
+      </c>
+      <c r="G58" s="12">
+        <f>G45/$C45</f>
+        <v>4941.0040609137059</v>
+      </c>
+      <c r="H58" s="12">
+        <f>H45/$C45</f>
+        <v>2905.6796954314723</v>
+      </c>
+      <c r="I58" s="12">
+        <f>I45/$C45</f>
+        <v>5421.918781725888</v>
+      </c>
+      <c r="J58" s="12">
+        <f>J45/$C45</f>
+        <v>2795.8121827411169</v>
+      </c>
+      <c r="K58" s="12">
+        <f>K45/$C45</f>
+        <v>5241.9695431472082</v>
+      </c>
+      <c r="L58" s="12">
+        <f>L45/$C45</f>
+        <v>2608.1492385786805</v>
+      </c>
+      <c r="M58" s="12">
+        <f>M45/$C45</f>
+        <v>5137.5634517766493</v>
+      </c>
+      <c r="N58" s="12">
+        <f>N45/$C45</f>
+        <v>2862.9771573604062</v>
+      </c>
+      <c r="O58" s="12">
+        <f>O45/$C45</f>
+        <v>5685.0609137055835</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C60" s="11">
+        <v>3</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61">
+        <v>3600</v>
+      </c>
+      <c r="H61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D62" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D63" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9">
+        <v>2019</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9">
+        <v>2021</v>
+      </c>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" t="s">
+        <v>10</v>
+      </c>
+      <c r="M64" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65" s="12">
+        <f>D51*$G$61/1000000</f>
+        <v>5.6719727999999998</v>
+      </c>
+      <c r="E65" s="12">
+        <f t="shared" ref="E65:O65" si="18">E51*$G$61/1000000</f>
+        <v>12.933636</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="18"/>
+        <v>5.2689071999999992</v>
+      </c>
+      <c r="G65" s="12">
+        <f t="shared" si="18"/>
+        <v>16.377000000000002</v>
+      </c>
+      <c r="H65" s="12">
+        <f t="shared" si="18"/>
+        <v>5.5098732000000004</v>
+      </c>
+      <c r="I65" s="12">
+        <f t="shared" si="18"/>
+        <v>18.956892</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" si="18"/>
+        <v>5.4857208000000002</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" si="18"/>
+        <v>14.284056</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="18"/>
+        <v>5.1841667999999999</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="18"/>
+        <v>16.588608000000001</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" si="18"/>
+        <v>5.0377464000000005</v>
+      </c>
+      <c r="O65" s="12">
+        <f t="shared" si="18"/>
+        <v>19.707636000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>31</v>
+      </c>
+      <c r="D66" s="12">
+        <f t="shared" ref="D66:O66" si="19">D52*$G$61/1000000</f>
+        <v>12.40097806451613</v>
+      </c>
+      <c r="E66" s="12">
+        <f t="shared" si="19"/>
+        <v>19.717350967741933</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" si="19"/>
+        <v>11.43308670967742</v>
+      </c>
+      <c r="G66" s="12">
+        <f t="shared" si="19"/>
+        <v>16.476085161290321</v>
+      </c>
+      <c r="H66" s="12">
+        <f t="shared" si="19"/>
+        <v>12.956667096774192</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="19"/>
+        <v>20.148630967741937</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="19"/>
+        <v>11.763719999999999</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="19"/>
+        <v>20.821076129032257</v>
+      </c>
+      <c r="L66" s="12">
+        <f t="shared" si="19"/>
+        <v>10.632200516129032</v>
+      </c>
+      <c r="M66" s="12">
+        <f t="shared" si="19"/>
+        <v>17.632196129032256</v>
+      </c>
+      <c r="N66" s="12">
+        <f t="shared" si="19"/>
+        <v>12.56292</v>
+      </c>
+      <c r="O66" s="12">
+        <f t="shared" si="19"/>
+        <v>21.334645161290322</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67" s="12">
+        <f t="shared" ref="D67:O67" si="20">D53*$G$61/1000000</f>
+        <v>19.801355999999995</v>
+      </c>
+      <c r="E67" s="12">
+        <f t="shared" si="20"/>
+        <v>24.052427999999999</v>
+      </c>
+      <c r="F67" s="12">
+        <f t="shared" si="20"/>
+        <v>16.193244000000004</v>
+      </c>
+      <c r="G67" s="12">
+        <f t="shared" si="20"/>
+        <v>19.400220000000001</v>
+      </c>
+      <c r="H67" s="12">
+        <f t="shared" si="20"/>
+        <v>17.983104000000004</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="20"/>
+        <v>22.40184</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="20"/>
+        <v>19.287420000000001</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" si="20"/>
+        <v>25.686432</v>
+      </c>
+      <c r="L67" s="12">
+        <f t="shared" si="20"/>
+        <v>15.666216</v>
+      </c>
+      <c r="M67" s="12">
+        <f t="shared" si="20"/>
+        <v>21.716832</v>
+      </c>
+      <c r="N67" s="12">
+        <f t="shared" si="20"/>
+        <v>17.608727999999999</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="20"/>
+        <v>24.563220000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>31</v>
+      </c>
+      <c r="D68" s="12">
+        <f t="shared" ref="D68:O68" si="21">D54*$G$61/1000000</f>
+        <v>15.708820645161287</v>
+      </c>
+      <c r="E68" s="12">
+        <f t="shared" si="21"/>
+        <v>23.003489032258063</v>
+      </c>
+      <c r="F68" s="12">
+        <f t="shared" si="21"/>
+        <v>16.973082580645158</v>
+      </c>
+      <c r="G68" s="12">
+        <f t="shared" si="21"/>
+        <v>24.286401290322583</v>
+      </c>
+      <c r="H68" s="12">
+        <f t="shared" si="21"/>
+        <v>18.056125161290321</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="21"/>
+        <v>25.365263225806451</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="21"/>
+        <v>15.340412903225806</v>
+      </c>
+      <c r="K68" s="12">
+        <f t="shared" si="21"/>
+        <v>23.489640000000001</v>
+      </c>
+      <c r="L68" s="12">
+        <f t="shared" si="21"/>
+        <v>16.637922580645164</v>
+      </c>
+      <c r="M68" s="12">
+        <f t="shared" si="21"/>
+        <v>25.75032387096774</v>
+      </c>
+      <c r="N68" s="12">
+        <f t="shared" si="21"/>
+        <v>16.780203870967746</v>
+      </c>
+      <c r="O68" s="12">
+        <f t="shared" si="21"/>
+        <v>27.096503225806451</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>31</v>
+      </c>
+      <c r="D69" s="12">
+        <f t="shared" ref="D69:O69" si="22">D55*$G$61/1000000</f>
+        <v>8.4344910967741935</v>
+      </c>
+      <c r="E69" s="12">
+        <f t="shared" si="22"/>
+        <v>20.877735483870968</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="22"/>
+        <v>8.694448258064515</v>
+      </c>
+      <c r="G69" s="12">
+        <f t="shared" si="22"/>
+        <v>22.783633548387098</v>
+      </c>
+      <c r="H69" s="12">
+        <f t="shared" si="22"/>
+        <v>8.6983014193548378</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" si="22"/>
+        <v>21.748273548387097</v>
+      </c>
+      <c r="J69" s="12">
+        <f t="shared" si="22"/>
+        <v>7.7444314838709678</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="22"/>
+        <v>21.398051612903227</v>
+      </c>
+      <c r="L69" s="12">
+        <f t="shared" si="22"/>
+        <v>8.4023233548387104</v>
+      </c>
+      <c r="M69" s="12">
+        <f t="shared" si="22"/>
+        <v>23.487410322580647</v>
+      </c>
+      <c r="N69" s="12">
+        <f t="shared" si="22"/>
+        <v>8.3883600000000005</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="22"/>
+        <v>21.83021419354839</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70" s="12">
+        <f t="shared" ref="D70:O70" si="23">D56*$G$61/1000000</f>
+        <v>3.2729460000000001</v>
+      </c>
+      <c r="E70" s="12">
+        <f t="shared" si="23"/>
+        <v>11.840446799999999</v>
+      </c>
+      <c r="F70" s="12">
+        <f t="shared" si="23"/>
+        <v>3.8780747999999998</v>
+      </c>
+      <c r="G70" s="12">
+        <f t="shared" si="23"/>
+        <v>12.66100799999988</v>
+      </c>
+      <c r="H70" s="12">
+        <f t="shared" si="23"/>
+        <v>3.0654143999999999</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" si="23"/>
+        <v>14.35102799999988</v>
+      </c>
+      <c r="J70" s="12">
+        <f t="shared" si="23"/>
+        <v>3.3676919999999884</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="23"/>
+        <v>11.901439199999999</v>
+      </c>
+      <c r="L70" s="12">
+        <f t="shared" si="23"/>
+        <v>3.7088040000000002</v>
+      </c>
+      <c r="M70" s="12">
+        <f t="shared" si="23"/>
+        <v>12.834576000000002</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="23"/>
+        <v>3.0982703999999996</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="23"/>
+        <v>14.616996</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71" s="12">
+        <f t="shared" ref="D71:O71" si="24">D57*$G$61/1000000</f>
+        <v>1.7873510399999977</v>
+      </c>
+      <c r="E71" s="12">
+        <f t="shared" si="24"/>
+        <v>5.9817960000000001</v>
+      </c>
+      <c r="F71" s="12">
+        <f t="shared" si="24"/>
+        <v>2.0988849599999999</v>
+      </c>
+      <c r="G71" s="12">
+        <f t="shared" si="24"/>
+        <v>5.1635951999999996</v>
+      </c>
+      <c r="H71" s="12">
+        <f t="shared" si="24"/>
+        <v>1.89176952</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" si="24"/>
+        <v>5.8053815999999996</v>
+      </c>
+      <c r="J71" s="12">
+        <f t="shared" si="24"/>
+        <v>1.7298923999999978</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="24"/>
+        <v>6.618177600000001</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="24"/>
+        <v>2.03077416</v>
+      </c>
+      <c r="M71" s="12">
+        <f t="shared" si="24"/>
+        <v>5.9475575999999997</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" si="24"/>
+        <v>1.8931982400000003</v>
+      </c>
+      <c r="O71" s="12">
+        <f t="shared" si="24"/>
+        <v>5.5967807999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>197</v>
+      </c>
+      <c r="D72" s="12">
+        <f t="shared" ref="D72:O72" si="25">D58*$G$61/1000000</f>
+        <v>10.422836954314722</v>
+      </c>
+      <c r="E72" s="12">
+        <f t="shared" si="25"/>
+        <v>18.003280203045684</v>
+      </c>
+      <c r="F72" s="12">
+        <f t="shared" si="25"/>
+        <v>9.766423553299493</v>
+      </c>
+      <c r="G72" s="12">
+        <f t="shared" si="25"/>
+        <v>17.787614619289343</v>
+      </c>
+      <c r="H72" s="12">
+        <f t="shared" si="25"/>
+        <v>10.460446903553299</v>
+      </c>
+      <c r="I72" s="12">
+        <f t="shared" si="25"/>
+        <v>19.518907614213198</v>
+      </c>
+      <c r="J72" s="12">
+        <f t="shared" si="25"/>
+        <v>10.064923857868022</v>
+      </c>
+      <c r="K72" s="12">
+        <f t="shared" si="25"/>
+        <v>18.871090355329951</v>
+      </c>
+      <c r="L72" s="12">
+        <f t="shared" si="25"/>
+        <v>9.3893372588832484</v>
+      </c>
+      <c r="M72" s="12">
+        <f t="shared" si="25"/>
+        <v>18.495228426395936</v>
+      </c>
+      <c r="N72" s="12">
+        <f t="shared" si="25"/>
+        <v>10.306717766497464</v>
+      </c>
+      <c r="O72" s="12">
+        <f t="shared" si="25"/>
+        <v>20.466219289340103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C74" s="11">
+        <v>4</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D76" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D77" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9">
+        <v>2019</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9">
+        <v>2021</v>
+      </c>
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" t="s">
+        <v>10</v>
+      </c>
+      <c r="M78" t="s">
+        <v>11</v>
+      </c>
+      <c r="N78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79" s="12">
+        <f>D65*$E$75/100</f>
+        <v>2.4389483039999997</v>
+      </c>
+      <c r="E79" s="12">
+        <f t="shared" ref="E79:O79" si="26">E65*$E$75/100</f>
+        <v>5.5614634799999996</v>
+      </c>
+      <c r="F79" s="12">
+        <f t="shared" si="26"/>
+        <v>2.2656300959999998</v>
+      </c>
+      <c r="G79" s="12">
+        <f t="shared" si="26"/>
+        <v>7.042110000000001</v>
+      </c>
+      <c r="H79" s="12">
+        <f t="shared" si="26"/>
+        <v>2.3692454760000001</v>
+      </c>
+      <c r="I79" s="12">
+        <f t="shared" si="26"/>
+        <v>8.1514635599999998</v>
+      </c>
+      <c r="J79" s="12">
+        <f t="shared" si="26"/>
+        <v>2.3588599440000002</v>
+      </c>
+      <c r="K79" s="12">
+        <f t="shared" si="26"/>
+        <v>6.1421440799999996</v>
+      </c>
+      <c r="L79" s="12">
+        <f t="shared" si="26"/>
+        <v>2.2291917239999997</v>
+      </c>
+      <c r="M79" s="12">
+        <f t="shared" si="26"/>
+        <v>7.1331014400000008</v>
+      </c>
+      <c r="N79" s="12">
+        <f t="shared" si="26"/>
+        <v>2.1662309520000003</v>
+      </c>
+      <c r="O79" s="12">
+        <f t="shared" si="26"/>
+        <v>8.4742834800000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>31</v>
+      </c>
+      <c r="D80" s="12">
+        <f>D66*$E$75/100</f>
+        <v>5.3324205677419352</v>
+      </c>
+      <c r="E80" s="12">
+        <f t="shared" ref="E80:O80" si="27">E66*$E$75/100</f>
+        <v>8.4784609161290305</v>
+      </c>
+      <c r="F80" s="12">
+        <f t="shared" si="27"/>
+        <v>4.9162272851612911</v>
+      </c>
+      <c r="G80" s="12">
+        <f t="shared" si="27"/>
+        <v>7.0847166193548379</v>
+      </c>
+      <c r="H80" s="12">
+        <f t="shared" si="27"/>
+        <v>5.5713668516129022</v>
+      </c>
+      <c r="I80" s="12">
+        <f t="shared" si="27"/>
+        <v>8.6639113161290329</v>
+      </c>
+      <c r="J80" s="12">
+        <f t="shared" si="27"/>
+        <v>5.0583995999999996</v>
+      </c>
+      <c r="K80" s="12">
+        <f t="shared" si="27"/>
+        <v>8.9530627354838703</v>
+      </c>
+      <c r="L80" s="12">
+        <f t="shared" si="27"/>
+        <v>4.5718462219354841</v>
+      </c>
+      <c r="M80" s="12">
+        <f t="shared" si="27"/>
+        <v>7.5818443354838703</v>
+      </c>
+      <c r="N80" s="12">
+        <f t="shared" si="27"/>
+        <v>5.4020555999999997</v>
+      </c>
+      <c r="O80" s="12">
+        <f t="shared" si="27"/>
+        <v>9.1738974193548373</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81" s="12">
+        <f t="shared" ref="D81:O81" si="28">D67*$E$75/100</f>
+        <v>8.5145830799999978</v>
+      </c>
+      <c r="E81" s="12">
+        <f t="shared" si="28"/>
+        <v>10.34254404</v>
+      </c>
+      <c r="F81" s="12">
+        <f t="shared" si="28"/>
+        <v>6.9630949200000023</v>
+      </c>
+      <c r="G81" s="12">
+        <f t="shared" si="28"/>
+        <v>8.3420946000000011</v>
+      </c>
+      <c r="H81" s="12">
+        <f t="shared" si="28"/>
+        <v>7.7327347200000016</v>
+      </c>
+      <c r="I81" s="12">
+        <f t="shared" si="28"/>
+        <v>9.6327911999999998</v>
+      </c>
+      <c r="J81" s="12">
+        <f t="shared" si="28"/>
+        <v>8.2935905999999999</v>
+      </c>
+      <c r="K81" s="12">
+        <f t="shared" si="28"/>
+        <v>11.04516576</v>
+      </c>
+      <c r="L81" s="12">
+        <f t="shared" si="28"/>
+        <v>6.73647288</v>
+      </c>
+      <c r="M81" s="12">
+        <f t="shared" si="28"/>
+        <v>9.3382377600000002</v>
+      </c>
+      <c r="N81" s="12">
+        <f t="shared" si="28"/>
+        <v>7.5717530399999999</v>
+      </c>
+      <c r="O81" s="12">
+        <f t="shared" si="28"/>
+        <v>10.5621846</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>31</v>
+      </c>
+      <c r="D82" s="12">
+        <f t="shared" ref="D82:O82" si="29">D68*$E$75/100</f>
+        <v>6.7547928774193533</v>
+      </c>
+      <c r="E82" s="12">
+        <f t="shared" si="29"/>
+        <v>9.8915002838709665</v>
+      </c>
+      <c r="F82" s="12">
+        <f t="shared" si="29"/>
+        <v>7.2984255096774175</v>
+      </c>
+      <c r="G82" s="12">
+        <f t="shared" si="29"/>
+        <v>10.443152554838711</v>
+      </c>
+      <c r="H82" s="12">
+        <f t="shared" si="29"/>
+        <v>7.7641338193548384</v>
+      </c>
+      <c r="I82" s="12">
+        <f t="shared" si="29"/>
+        <v>10.907063187096774</v>
+      </c>
+      <c r="J82" s="12">
+        <f t="shared" si="29"/>
+        <v>6.5963775483870961</v>
+      </c>
+      <c r="K82" s="12">
+        <f t="shared" si="29"/>
+        <v>10.100545200000001</v>
+      </c>
+      <c r="L82" s="12">
+        <f t="shared" si="29"/>
+        <v>7.15430670967742</v>
+      </c>
+      <c r="M82" s="12">
+        <f t="shared" si="29"/>
+        <v>11.072639264516129</v>
+      </c>
+      <c r="N82" s="12">
+        <f t="shared" si="29"/>
+        <v>7.2154876645161314</v>
+      </c>
+      <c r="O82" s="12">
+        <f t="shared" si="29"/>
+        <v>11.651496387096774</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>31</v>
+      </c>
+      <c r="D83" s="12">
+        <f t="shared" ref="D83:O83" si="30">D69*$E$75/100</f>
+        <v>3.6268311716129036</v>
+      </c>
+      <c r="E83" s="12">
+        <f t="shared" si="30"/>
+        <v>8.9774262580645168</v>
+      </c>
+      <c r="F83" s="12">
+        <f t="shared" si="30"/>
+        <v>3.7386127509677411</v>
+      </c>
+      <c r="G83" s="12">
+        <f t="shared" si="30"/>
+        <v>9.796962425806452</v>
+      </c>
+      <c r="H83" s="12">
+        <f t="shared" si="30"/>
+        <v>3.7402696103225805</v>
+      </c>
+      <c r="I83" s="12">
+        <f t="shared" si="30"/>
+        <v>9.3517576258064512</v>
+      </c>
+      <c r="J83" s="12">
+        <f t="shared" si="30"/>
+        <v>3.3301055380645166</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" si="30"/>
+        <v>9.201162193548388</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="30"/>
+        <v>3.6129990425806455</v>
+      </c>
+      <c r="M83" s="12">
+        <f t="shared" si="30"/>
+        <v>10.099586438709679</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" si="30"/>
+        <v>3.6069947999999998</v>
+      </c>
+      <c r="O83" s="12">
+        <f t="shared" si="30"/>
+        <v>9.3869921032258077</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84" s="12">
+        <f t="shared" ref="D84:O84" si="31">D70*$E$75/100</f>
+        <v>1.40736678</v>
+      </c>
+      <c r="E84" s="12">
+        <f t="shared" si="31"/>
+        <v>5.0913921239999995</v>
+      </c>
+      <c r="F84" s="12">
+        <f t="shared" si="31"/>
+        <v>1.6675721640000001</v>
+      </c>
+      <c r="G84" s="12">
+        <f t="shared" si="31"/>
+        <v>5.4442334399999481</v>
+      </c>
+      <c r="H84" s="12">
+        <f t="shared" si="31"/>
+        <v>1.3181281920000001</v>
+      </c>
+      <c r="I84" s="12">
+        <f t="shared" si="31"/>
+        <v>6.1709420399999484</v>
+      </c>
+      <c r="J84" s="12">
+        <f t="shared" si="31"/>
+        <v>1.4481075599999949</v>
+      </c>
+      <c r="K84" s="12">
+        <f t="shared" si="31"/>
+        <v>5.1176188559999991</v>
+      </c>
+      <c r="L84" s="12">
+        <f t="shared" si="31"/>
+        <v>1.5947857200000002</v>
+      </c>
+      <c r="M84" s="12">
+        <f t="shared" si="31"/>
+        <v>5.5188676800000005</v>
+      </c>
+      <c r="N84" s="12">
+        <f t="shared" si="31"/>
+        <v>1.332256272</v>
+      </c>
+      <c r="O84" s="12">
+        <f t="shared" si="31"/>
+        <v>6.2853082800000006</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85" s="12">
+        <f t="shared" ref="D85:O85" si="32">D71*$E$75/100</f>
+        <v>0.76856094719999901</v>
+      </c>
+      <c r="E85" s="12">
+        <f t="shared" si="32"/>
+        <v>2.5721722799999998</v>
+      </c>
+      <c r="F85" s="12">
+        <f t="shared" si="32"/>
+        <v>0.9025205328</v>
+      </c>
+      <c r="G85" s="12">
+        <f t="shared" si="32"/>
+        <v>2.2203459359999997</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" si="32"/>
+        <v>0.81346089359999996</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" si="32"/>
+        <v>2.4963140879999997</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="32"/>
+        <v>0.74385373199999905</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="32"/>
+        <v>2.8458163680000008</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="32"/>
+        <v>0.87323288880000005</v>
+      </c>
+      <c r="M85" s="12">
+        <f t="shared" si="32"/>
+        <v>2.5574497679999997</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" si="32"/>
+        <v>0.81407524320000002</v>
+      </c>
+      <c r="O85" s="12">
+        <f t="shared" si="32"/>
+        <v>2.4066157439999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>197</v>
+      </c>
+      <c r="D86" s="12">
+        <f t="shared" ref="D86:O86" si="33">D72*$E$75/100</f>
+        <v>4.4818198903553306</v>
+      </c>
+      <c r="E86" s="12">
+        <f t="shared" si="33"/>
+        <v>7.7414104873096434</v>
+      </c>
+      <c r="F86" s="12">
+        <f t="shared" si="33"/>
+        <v>4.1995621279187825</v>
+      </c>
+      <c r="G86" s="12">
+        <f t="shared" si="33"/>
+        <v>7.6486742862944173</v>
+      </c>
+      <c r="H86" s="12">
+        <f t="shared" si="33"/>
+        <v>4.4979921685279187</v>
+      </c>
+      <c r="I86" s="12">
+        <f t="shared" si="33"/>
+        <v>8.3931302741116749</v>
+      </c>
+      <c r="J86" s="12">
+        <f t="shared" si="33"/>
+        <v>4.3279172588832493</v>
+      </c>
+      <c r="K86" s="12">
+        <f t="shared" si="33"/>
+        <v>8.1145688527918782</v>
+      </c>
+      <c r="L86" s="12">
+        <f t="shared" si="33"/>
+        <v>4.0374150213197968</v>
+      </c>
+      <c r="M86" s="12">
+        <f t="shared" si="33"/>
+        <v>7.9529482233502531</v>
+      </c>
+      <c r="N86" s="12">
+        <f t="shared" si="33"/>
+        <v>4.4318886395939092</v>
+      </c>
+      <c r="O86" s="12">
+        <f t="shared" si="33"/>
+        <v>8.8004742944162437</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C88" s="11">
+        <v>5</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" t="s">
+        <v>211</v>
+      </c>
+      <c r="F89">
+        <v>127.79</v>
+      </c>
+      <c r="G89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D90" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D91" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9">
+        <v>2021</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9">
+        <v>2019</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9">
+        <v>2021</v>
+      </c>
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92" t="s">
+        <v>11</v>
+      </c>
+      <c r="N92" t="s">
+        <v>10</v>
+      </c>
+      <c r="O92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93" s="12">
+        <f>D79*$F$89</f>
+        <v>311.67320376815996</v>
+      </c>
+      <c r="E93" s="12">
+        <f t="shared" ref="E93:O93" si="34">E79*$F$89</f>
+        <v>710.6994181092</v>
+      </c>
+      <c r="F93" s="12">
+        <f t="shared" si="34"/>
+        <v>289.52486996784</v>
+      </c>
+      <c r="G93" s="12">
+        <f t="shared" si="34"/>
+        <v>899.91123690000018</v>
+      </c>
+      <c r="H93" s="12">
+        <f t="shared" si="34"/>
+        <v>302.76587937804004</v>
+      </c>
+      <c r="I93" s="12">
+        <f t="shared" si="34"/>
+        <v>1041.6755283324001</v>
+      </c>
+      <c r="J93" s="12">
+        <f t="shared" si="34"/>
+        <v>301.43871224376005</v>
+      </c>
+      <c r="K93" s="12">
+        <f t="shared" si="34"/>
+        <v>784.90459198320002</v>
+      </c>
+      <c r="L93" s="12">
+        <f t="shared" si="34"/>
+        <v>284.86841040995995</v>
+      </c>
+      <c r="M93" s="12">
+        <f t="shared" si="34"/>
+        <v>911.5390330176001</v>
+      </c>
+      <c r="N93" s="12">
+        <f t="shared" si="34"/>
+        <v>276.82265335608002</v>
+      </c>
+      <c r="O93" s="12">
+        <f t="shared" si="34"/>
+        <v>1082.9286859092001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>31</v>
+      </c>
+      <c r="D94" s="12">
+        <f t="shared" ref="D94:O94" si="35">D80*$F$89</f>
+        <v>681.43002435174196</v>
+      </c>
+      <c r="E94" s="12">
+        <f t="shared" si="35"/>
+        <v>1083.462520472129</v>
+      </c>
+      <c r="F94" s="12">
+        <f t="shared" si="35"/>
+        <v>628.24468477076141</v>
+      </c>
+      <c r="G94" s="12">
+        <f t="shared" si="35"/>
+        <v>905.35593678735472</v>
+      </c>
+      <c r="H94" s="12">
+        <f t="shared" si="35"/>
+        <v>711.96496996761277</v>
+      </c>
+      <c r="I94" s="12">
+        <f t="shared" si="35"/>
+        <v>1107.1612270881292</v>
+      </c>
+      <c r="J94" s="12">
+        <f t="shared" si="35"/>
+        <v>646.41288488399994</v>
+      </c>
+      <c r="K94" s="12">
+        <f t="shared" si="35"/>
+        <v>1144.1118869674838</v>
+      </c>
+      <c r="L94" s="12">
+        <f t="shared" si="35"/>
+        <v>584.23622870113559</v>
+      </c>
+      <c r="M94" s="12">
+        <f t="shared" si="35"/>
+        <v>968.88388763148384</v>
+      </c>
+      <c r="N94" s="12">
+        <f t="shared" si="35"/>
+        <v>690.328685124</v>
+      </c>
+      <c r="O94" s="12">
+        <f t="shared" si="35"/>
+        <v>1172.3323512193547</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95" s="12">
+        <f t="shared" ref="D95:O95" si="36">D81*$F$89</f>
+        <v>1088.0785717931997</v>
+      </c>
+      <c r="E95" s="12">
+        <f t="shared" si="36"/>
+        <v>1321.6737028716</v>
+      </c>
+      <c r="F95" s="12">
+        <f t="shared" si="36"/>
+        <v>889.81389982680037</v>
+      </c>
+      <c r="G95" s="12">
+        <f t="shared" si="36"/>
+        <v>1066.0362689340002</v>
+      </c>
+      <c r="H95" s="12">
+        <f t="shared" si="36"/>
+        <v>988.16616986880024</v>
+      </c>
+      <c r="I95" s="12">
+        <f t="shared" si="36"/>
+        <v>1230.974387448</v>
+      </c>
+      <c r="J95" s="12">
+        <f t="shared" si="36"/>
+        <v>1059.8379427740001</v>
+      </c>
+      <c r="K95" s="12">
+        <f t="shared" si="36"/>
+        <v>1411.4617324704</v>
+      </c>
+      <c r="L95" s="12">
+        <f t="shared" si="36"/>
+        <v>860.85386933519999</v>
+      </c>
+      <c r="M95" s="12">
+        <f t="shared" si="36"/>
+        <v>1193.3334033504</v>
+      </c>
+      <c r="N95" s="12">
+        <f t="shared" si="36"/>
+        <v>967.59432098160005</v>
+      </c>
+      <c r="O95" s="12">
+        <f t="shared" si="36"/>
+        <v>1349.741570034</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>31</v>
+      </c>
+      <c r="D96" s="12">
+        <f t="shared" ref="D96:O96" si="37">D82*$F$89</f>
+        <v>863.19498180541916</v>
+      </c>
+      <c r="E96" s="12">
+        <f t="shared" si="37"/>
+        <v>1264.0348212758709</v>
+      </c>
+      <c r="F96" s="12">
+        <f t="shared" si="37"/>
+        <v>932.66579588167724</v>
+      </c>
+      <c r="G96" s="12">
+        <f t="shared" si="37"/>
+        <v>1334.530464982839</v>
+      </c>
+      <c r="H96" s="12">
+        <f t="shared" si="37"/>
+        <v>992.17866077535484</v>
+      </c>
+      <c r="I96" s="12">
+        <f t="shared" si="37"/>
+        <v>1393.8136046790969</v>
+      </c>
+      <c r="J96" s="12">
+        <f t="shared" si="37"/>
+        <v>842.95108690838708</v>
+      </c>
+      <c r="K96" s="12">
+        <f t="shared" si="37"/>
+        <v>1290.7486711080003</v>
+      </c>
+      <c r="L96" s="12">
+        <f t="shared" si="37"/>
+        <v>914.24885442967752</v>
+      </c>
+      <c r="M96" s="12">
+        <f t="shared" si="37"/>
+        <v>1414.972571612516</v>
+      </c>
+      <c r="N96" s="12">
+        <f t="shared" si="37"/>
+        <v>922.06716864851649</v>
+      </c>
+      <c r="O96" s="12">
+        <f t="shared" si="37"/>
+        <v>1488.9447233070969</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>31</v>
+      </c>
+      <c r="D97" s="12">
+        <f t="shared" ref="D97:O97" si="38">D83*$F$89</f>
+        <v>463.47275542041297</v>
+      </c>
+      <c r="E97" s="12">
+        <f t="shared" si="38"/>
+        <v>1147.2253015180647</v>
+      </c>
+      <c r="F97" s="12">
+        <f t="shared" si="38"/>
+        <v>477.75732344616767</v>
+      </c>
+      <c r="G97" s="12">
+        <f t="shared" si="38"/>
+        <v>1251.9538283938066</v>
+      </c>
+      <c r="H97" s="12">
+        <f t="shared" si="38"/>
+        <v>477.96905350312261</v>
+      </c>
+      <c r="I97" s="12">
+        <f t="shared" si="38"/>
+        <v>1195.0611070018065</v>
+      </c>
+      <c r="J97" s="12">
+        <f t="shared" si="38"/>
+        <v>425.55418670926457</v>
+      </c>
+      <c r="K97" s="12">
+        <f t="shared" si="38"/>
+        <v>1175.8165167135485</v>
+      </c>
+      <c r="L97" s="12">
+        <f t="shared" si="38"/>
+        <v>461.70514765138074</v>
+      </c>
+      <c r="M97" s="12">
+        <f t="shared" si="38"/>
+        <v>1290.62615100271</v>
+      </c>
+      <c r="N97" s="12">
+        <f t="shared" si="38"/>
+        <v>460.93786549200001</v>
+      </c>
+      <c r="O97" s="12">
+        <f t="shared" si="38"/>
+        <v>1199.563720871226</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98" s="12">
+        <f t="shared" ref="D98:O98" si="39">D84*$F$89</f>
+        <v>179.84740081620001</v>
+      </c>
+      <c r="E98" s="12">
+        <f t="shared" si="39"/>
+        <v>650.62899952596001</v>
+      </c>
+      <c r="F98" s="12">
+        <f t="shared" si="39"/>
+        <v>213.09904683756002</v>
+      </c>
+      <c r="G98" s="12">
+        <f t="shared" si="39"/>
+        <v>695.71859129759343</v>
+      </c>
+      <c r="H98" s="12">
+        <f t="shared" si="39"/>
+        <v>168.44360165568003</v>
+      </c>
+      <c r="I98" s="12">
+        <f t="shared" si="39"/>
+        <v>788.58468329159348</v>
+      </c>
+      <c r="J98" s="12">
+        <f t="shared" si="39"/>
+        <v>185.05366509239934</v>
+      </c>
+      <c r="K98" s="12">
+        <f t="shared" si="39"/>
+        <v>653.9805136082399</v>
+      </c>
+      <c r="L98" s="12">
+        <f t="shared" si="39"/>
+        <v>203.79766715880004</v>
+      </c>
+      <c r="M98" s="12">
+        <f t="shared" si="39"/>
+        <v>705.25610082720004</v>
+      </c>
+      <c r="N98" s="12">
+        <f t="shared" si="39"/>
+        <v>170.24902899887999</v>
+      </c>
+      <c r="O98" s="12">
+        <f t="shared" si="39"/>
+        <v>803.1995451012001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99" s="12">
+        <f t="shared" ref="D99:O99" si="40">D85*$F$89</f>
+        <v>98.214403442687882</v>
+      </c>
+      <c r="E99" s="12">
+        <f t="shared" si="40"/>
+        <v>328.69789566119999</v>
+      </c>
+      <c r="F99" s="12">
+        <f t="shared" si="40"/>
+        <v>115.333098886512</v>
+      </c>
+      <c r="G99" s="12">
+        <f t="shared" si="40"/>
+        <v>283.73800716143995</v>
+      </c>
+      <c r="H99" s="12">
+        <f t="shared" si="40"/>
+        <v>103.952167593144</v>
+      </c>
+      <c r="I99" s="12">
+        <f t="shared" si="40"/>
+        <v>319.00397730551998</v>
+      </c>
+      <c r="J99" s="12">
+        <f t="shared" si="40"/>
+        <v>95.057068412279889</v>
+      </c>
+      <c r="K99" s="12">
+        <f t="shared" si="40"/>
+        <v>363.66687366672011</v>
+      </c>
+      <c r="L99" s="12">
+        <f t="shared" si="40"/>
+        <v>111.59043085975202</v>
+      </c>
+      <c r="M99" s="12">
+        <f t="shared" si="40"/>
+        <v>326.81650585271996</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" si="40"/>
+        <v>104.03067532852801</v>
+      </c>
+      <c r="O99" s="12">
+        <f t="shared" si="40"/>
+        <v>307.54142592576</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>197</v>
+      </c>
+      <c r="D100" s="12">
+        <f t="shared" ref="D100:O100" si="41">D86*$F$89</f>
+        <v>572.73176378850769</v>
+      </c>
+      <c r="E100" s="12">
+        <f t="shared" si="41"/>
+        <v>989.27484617329935</v>
+      </c>
+      <c r="F100" s="12">
+        <f t="shared" si="41"/>
+        <v>536.66204432674124</v>
+      </c>
+      <c r="G100" s="12">
+        <f t="shared" si="41"/>
+        <v>977.42408704556362</v>
+      </c>
+      <c r="H100" s="12">
+        <f t="shared" si="41"/>
+        <v>574.79841921618277</v>
+      </c>
+      <c r="I100" s="12">
+        <f t="shared" si="41"/>
+        <v>1072.5581177287311</v>
+      </c>
+      <c r="J100" s="12">
+        <f t="shared" si="41"/>
+        <v>553.06454651269041</v>
+      </c>
+      <c r="K100" s="12">
+        <f t="shared" si="41"/>
+        <v>1036.9607536982742</v>
+      </c>
+      <c r="L100" s="12">
+        <f t="shared" si="41"/>
+        <v>515.94126557445691</v>
+      </c>
+      <c r="M100" s="12">
+        <f t="shared" si="41"/>
+        <v>1016.3072534619289</v>
+      </c>
+      <c r="N100" s="12">
+        <f t="shared" si="41"/>
+        <v>566.3510492537057</v>
+      </c>
+      <c r="O100" s="12">
+        <f t="shared" si="41"/>
+        <v>1124.612610083452</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="N16:V16"/>
-    <mergeCell ref="W16:AE16"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:AE2"/>
+  <mergeCells count="46">
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="J90:O90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:O62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="W18:AE18"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="W4:AE4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
